--- a/assets/path_upload/upload_jadwal_produksi_228572.xlsx
+++ b/assets/path_upload/upload_jadwal_produksi_228572.xlsx
@@ -604,7 +604,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BI8" sqref="BI8"/>
+      <selection pane="bottomLeft" activeCell="BB24" sqref="BB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/path_upload/upload_jadwal_produksi_228572.xlsx
+++ b/assets/path_upload/upload_jadwal_produksi_228572.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imamsyz/Project/ASTRA/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5A8F9A-FC1A-A645-BFE4-95A5B1C5BD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20740" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jadwal_Produksi" sheetId="5" r:id="rId1"/>
@@ -163,16 +169,16 @@
     <t>Status Zona_30</t>
   </si>
   <si>
-    <t>September</t>
-  </si>
-  <si>
     <t>off</t>
+  </si>
+  <si>
+    <t>Oktober</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -261,31 +267,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,19 +289,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -323,6 +297,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,491 +605,479 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.5" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.5" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="15" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="15" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="15" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="15" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="15" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.5" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="15" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.5" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="15" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="15" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="15" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="15" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:62" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
         <v>2022</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
-      <c r="BH3" s="11"/>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="11"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="7"/>
+      <c r="BF3" s="7"/>
+      <c r="BG3" s="7"/>
+      <c r="BH3" s="7"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="11"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="11"/>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="11"/>
-      <c r="BH4" s="11"/>
-      <c r="BI4" s="11"/>
-      <c r="BJ4" s="11"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="7"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="7"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="7"/>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="11"/>
-      <c r="AP5" s="11"/>
-      <c r="AQ5" s="11"/>
-      <c r="AR5" s="11"/>
-      <c r="AS5" s="11"/>
-      <c r="AT5" s="11"/>
-      <c r="AU5" s="11"/>
-      <c r="AV5" s="11"/>
-      <c r="AW5" s="11"/>
-      <c r="AX5" s="11"/>
-      <c r="AY5" s="11"/>
-      <c r="AZ5" s="11"/>
-      <c r="BA5" s="11"/>
-      <c r="BB5" s="11"/>
-      <c r="BC5" s="11"/>
-      <c r="BD5" s="11"/>
-      <c r="BE5" s="11"/>
-      <c r="BF5" s="11"/>
-      <c r="BG5" s="11"/>
-      <c r="BH5" s="11"/>
-      <c r="BI5" s="11"/>
-      <c r="BJ5" s="11"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="7"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7"/>
     </row>
-    <row r="6" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:62" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="9"/>
-      <c r="BH6" s="9"/>
-      <c r="BI6" s="9"/>
-      <c r="BJ6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="10"/>
+      <c r="BH6" s="10"/>
     </row>
-    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="6">
         <v>1</v>
       </c>
@@ -1291,7 +1259,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1302,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -1314,7 +1282,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>8</v>
@@ -1479,7 +1447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1667,7 +1635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1693,10 +1661,10 @@
         <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>4</v>
@@ -1855,7 +1823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1866,13 +1834,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>8</v>
@@ -1881,7 +1849,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>10</v>
@@ -1890,31 +1858,31 @@
         <v>4</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>8</v>
@@ -1932,31 +1900,31 @@
         <v>4</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>8</v>
@@ -1974,31 +1942,31 @@
         <v>4</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AO11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AQ11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AU11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AW11" s="1" t="s">
         <v>8</v>
@@ -2016,34 +1984,34 @@
         <v>4</v>
       </c>
       <c r="BB11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BC11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BD11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BE11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BG11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BH11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BI11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BJ11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
@@ -2054,13 +2022,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>8</v>
@@ -2078,31 +2046,31 @@
         <v>4</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>8</v>
@@ -2120,31 +2088,31 @@
         <v>4</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI12" s="1" t="s">
         <v>8</v>
@@ -2162,31 +2130,31 @@
         <v>4</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AO12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AQ12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AU12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AW12" s="1" t="s">
         <v>8</v>
@@ -2204,34 +2172,34 @@
         <v>4</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BD12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BE12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BF12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BG12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BH12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BI12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BJ12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -2419,7 +2387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -2607,7 +2575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -2795,7 +2763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -2806,13 +2774,13 @@
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>8</v>
@@ -2830,31 +2798,31 @@
         <v>4</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>8</v>
@@ -2872,31 +2840,31 @@
         <v>4</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI16" s="1" t="s">
         <v>8</v>
@@ -2914,31 +2882,31 @@
         <v>4</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AO16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AQ16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AU16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AV16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AW16" s="1" t="s">
         <v>8</v>
@@ -2956,34 +2924,34 @@
         <v>4</v>
       </c>
       <c r="BB16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BD16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BE16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BF16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BG16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BH16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BI16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BJ16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -2994,13 +2962,13 @@
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>8</v>
@@ -3018,31 +2986,31 @@
         <v>4</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>8</v>
@@ -3060,31 +3028,31 @@
         <v>4</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI17" s="1" t="s">
         <v>8</v>
@@ -3102,31 +3070,31 @@
         <v>4</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AO17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AQ17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AU17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AV17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AW17" s="1" t="s">
         <v>8</v>
@@ -3144,34 +3112,34 @@
         <v>4</v>
       </c>
       <c r="BB17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BD17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BE17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BF17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BG17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BH17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BI17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BJ17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -3359,7 +3327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -3547,7 +3515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>13</v>
       </c>
@@ -3735,7 +3703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -3746,13 +3714,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>8</v>
@@ -3770,31 +3738,31 @@
         <v>4</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>8</v>
@@ -3812,31 +3780,31 @@
         <v>4</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI21" s="1" t="s">
         <v>8</v>
@@ -3854,31 +3822,31 @@
         <v>4</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AO21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AQ21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AU21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AV21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AW21" s="1" t="s">
         <v>8</v>
@@ -3896,34 +3864,34 @@
         <v>4</v>
       </c>
       <c r="BB21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BD21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BE21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BF21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BG21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BH21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BI21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BJ21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -3934,13 +3902,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>8</v>
@@ -3958,31 +3926,31 @@
         <v>4</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>8</v>
@@ -4000,31 +3968,31 @@
         <v>4</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AH22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI22" s="1" t="s">
         <v>8</v>
@@ -4042,31 +4010,31 @@
         <v>4</v>
       </c>
       <c r="AN22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AO22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AQ22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AU22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AV22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AW22" s="1" t="s">
         <v>8</v>
@@ -4084,40 +4052,40 @@
         <v>4</v>
       </c>
       <c r="BB22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BC22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BD22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BE22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BF22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BG22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BH22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BI22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BJ22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="C2:BH5"/>
+    <mergeCell ref="A1:BH1"/>
+    <mergeCell ref="C6:BH6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:BJ6"/>
-    <mergeCell ref="C2:BJ5"/>
-    <mergeCell ref="A1:BJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
